--- a/Vorlage_Bestellliste.xlsx
+++ b/Vorlage_Bestellliste.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\glaL2\Leiterplatte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4145F97-F3D7-4765-A8F5-CC98DFCA2DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74335DAE-2219-405B-A866-1F275F490594}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0745CA3E-26A0-4357-AF02-E204E9F44B4F}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{0745CA3E-26A0-4357-AF02-E204E9F44B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="182">
   <si>
     <t>Qty</t>
   </si>
@@ -274,13 +266,7 @@
     <t>506-FSM6JH</t>
   </si>
   <si>
-    <t>PEC11R-4215F-N0024 -  Inkrementalgeber, 5V DC, 2 Kanäle, 60U/min, 24 Rastungen, 24 Impulse, Baureihe PEC11R</t>
-  </si>
-  <si>
     <t>Bourns</t>
-  </si>
-  <si>
-    <t>PEC11R-4215F-N0024</t>
   </si>
   <si>
     <t>LTP-305G</t>
@@ -590,13 +576,22 @@
   </si>
   <si>
     <t>J402</t>
+  </si>
+  <si>
+    <t>652-PEC12R4015FS0024</t>
+  </si>
+  <si>
+    <t>PEC12R-4015F-S0024  Inkrementalgeber</t>
+  </si>
+  <si>
+    <t>PEC12R-4015F-S00024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,8 +645,91 @@
       <name val="Liberation Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,8 +742,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -673,11 +793,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,9 +874,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Accent" xfId="3" xr:uid="{F51944DE-C40C-4C4C-A527-661C2ACA12DB}"/>
+    <cellStyle name="Accent 1" xfId="4" xr:uid="{39BE5130-CB84-49A6-A602-78DA22491369}"/>
+    <cellStyle name="Accent 2" xfId="5" xr:uid="{2D042EA4-20FD-450A-94AD-2E004BB21ADE}"/>
+    <cellStyle name="Accent 3" xfId="6" xr:uid="{AF232BB3-B03F-4E30-8289-2A2BAF48F842}"/>
+    <cellStyle name="Bad" xfId="7" xr:uid="{8991DC7F-3FCC-46F1-A0A0-75885D3442CA}"/>
+    <cellStyle name="Error" xfId="8" xr:uid="{25DA4DA3-89E9-49E0-8918-EE345453CFF6}"/>
+    <cellStyle name="Footnote" xfId="9" xr:uid="{BBF470D0-7AAC-44C6-8E13-1E96C8872133}"/>
+    <cellStyle name="Good" xfId="10" xr:uid="{19F944DA-093B-4BEE-97D3-17AFD1754265}"/>
+    <cellStyle name="Heading (user)" xfId="11" xr:uid="{4FD66A7C-2EA1-46BF-8911-78A245779243}"/>
+    <cellStyle name="Heading 1" xfId="12" xr:uid="{E9F692AA-80D3-42DC-910B-97ECF3708900}"/>
+    <cellStyle name="Heading 2" xfId="13" xr:uid="{0270D478-A5B5-4AAB-B1A9-89014A770232}"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{B61E69E9-5B4F-4B60-914A-4CDC20F3FA0C}"/>
+    <cellStyle name="Neutral 2" xfId="2" xr:uid="{F528901C-4343-4585-A213-E2F0203C7153}"/>
+    <cellStyle name="Note" xfId="15" xr:uid="{01FD2ABE-FC7B-4E1D-BB9A-6EC8D89AC71B}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{63788B80-10E3-4B83-892E-F52240836722}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{18DFB1BD-A27C-45E7-8FB0-44A876897BD1}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{6F489D47-4B18-48D2-9364-B70E31052433}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{0581FC51-A5DB-4564-B1F4-EA702E837A7D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1038,10 +1213,10 @@
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="99.5703125" customWidth="1"/>
@@ -1049,7 +1224,7 @@
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1079,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1087,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>12</v>
@@ -1112,7 +1287,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1120,22 +1295,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>103</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
       </c>
       <c r="I4">
         <v>0.14000000000000001</v>
@@ -1145,7 +1320,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1162,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1178,7 +1353,7 @@
         <v>1.536</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1211,7 +1386,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1219,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>25</v>
@@ -1244,7 +1419,7 @@
         <v>1.2150000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1252,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>26</v>
@@ -1277,7 +1452,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1285,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>31</v>
@@ -1310,7 +1485,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1318,22 +1493,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I10" s="5">
         <v>0.62</v>
@@ -1343,7 +1518,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1376,7 +1551,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1409,7 +1584,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1442,7 +1617,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1475,7 +1650,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1483,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>54</v>
@@ -1508,7 +1683,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1541,7 +1716,7 @@
         <v>2.4779999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1549,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>60</v>
@@ -1574,7 +1749,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1582,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>64</v>
@@ -1607,7 +1782,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1640,7 +1815,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1648,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>72</v>
@@ -1673,7 +1848,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="8" customFormat="1">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1684,19 +1859,19 @@
         <v>53</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="G21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
         <v>132</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>134</v>
       </c>
       <c r="I21" s="5">
         <v>2.98</v>
@@ -1706,7 +1881,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="14" customFormat="1">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1714,22 +1889,22 @@
         <v>1</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="G22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="I22" s="17">
         <v>2.16</v>
@@ -1739,7 +1914,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1747,32 +1922,32 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="6">
-        <v>2663523</v>
+        <v>180</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="I23" s="5">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" si="3"/>
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1780,22 +1955,22 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="F24" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I24" s="5">
         <v>2.2000000000000002</v>
@@ -1805,7 +1980,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1813,22 +1988,22 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="I25" s="5">
         <v>0.46600000000000003</v>
@@ -1838,7 +2013,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1846,22 +2021,22 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="I26">
         <v>0.30199999999999999</v>
@@ -1871,7 +2046,7 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1879,22 +2054,22 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="I27" s="8">
         <v>9.2999999999999999E-2</v>
@@ -1904,7 +2079,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1912,22 +2087,22 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
         <v>96</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" t="s">
-        <v>98</v>
       </c>
       <c r="I28" s="8">
         <v>0.314</v>
@@ -1937,7 +2112,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" customHeight="1">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1945,22 +2120,22 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
         <v>100</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" t="s">
-        <v>102</v>
       </c>
       <c r="I29" s="8">
         <v>0.24399999999999999</v>
@@ -1970,7 +2145,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1978,22 +2153,22 @@
         <v>1</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="I30" s="8">
         <v>0.28799999999999998</v>
@@ -2003,7 +2178,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -2016,7 +2191,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2028,7 +2203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -2036,22 +2211,22 @@
         <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="I32" s="8">
         <v>7.8E-2</v>
@@ -2061,7 +2236,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -2069,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D33" s="9">
         <v>74279220601</v>
@@ -2078,13 +2253,13 @@
         <v>47</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I33" s="8">
         <v>0.27</v>
@@ -2094,7 +2269,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -2105,19 +2280,19 @@
         <v>33</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
         <v>143</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" t="s">
-        <v>145</v>
       </c>
       <c r="I34" s="8">
         <v>0.72799999999999998</v>
@@ -2127,7 +2302,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="8" customFormat="1">
       <c r="A35" s="14">
         <v>33</v>
       </c>
@@ -2135,22 +2310,22 @@
         <v>1</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="G35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="I35" s="8">
         <v>0.1</v>
@@ -2160,7 +2335,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="14">
         <v>34</v>
       </c>
@@ -2168,22 +2343,22 @@
         <v>1</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I36" s="8">
         <v>0.8</v>
@@ -2193,7 +2368,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -2201,22 +2376,22 @@
         <v>1</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I37" s="8">
         <v>0.47299999999999998</v>
@@ -2226,7 +2401,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="14">
         <v>36</v>
       </c>
@@ -2234,22 +2409,22 @@
         <v>2</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I38" s="8">
         <v>0.63700000000000001</v>
@@ -2259,7 +2434,7 @@
         <v>1.274</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="14">
         <v>37</v>
       </c>
@@ -2267,22 +2442,22 @@
         <v>1</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D39" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="I39" s="8">
         <v>1.61</v>
@@ -2292,7 +2467,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="14">
         <v>38</v>
       </c>
@@ -2300,22 +2475,22 @@
         <v>1</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D40" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>165</v>
       </c>
       <c r="I40" s="8">
         <v>0.85</v>
@@ -2325,7 +2500,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -2335,14 +2510,14 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J41" s="13">
-        <f>SUM(J8:J40)</f>
-        <v>49.357999999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <f>SUM(J3:J40)</f>
+        <v>52.951999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -2353,18 +2528,18 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -2375,7 +2550,7 @@
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -2386,7 +2561,7 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -2397,7 +2572,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:11">
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -2408,7 +2583,7 @@
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:11">
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -2419,7 +2594,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11">
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
